--- a/TestAutomationFramework/configuration/TestCases.xlsx
+++ b/TestAutomationFramework/configuration/TestCases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvitalii/Documents/Eclipse/workspace/TestAutomationFramework/configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvitalii/git/Automation/TestAutomationFramework/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3020" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="6900" yWindow="8220" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Number</t>
   </si>
@@ -50,7 +50,25 @@
     <t>ResultSet</t>
   </si>
   <si>
-    <t>field1;field2;field3;field1;field2;field3;</t>
+    <t>From London to Munich</t>
+  </si>
+  <si>
+    <t>From New York</t>
+  </si>
+  <si>
+    <t>To Milan and Helsinki</t>
+  </si>
+  <si>
+    <t>departureAirport,arrivalAirport,stopsNumber,avarageTicketPrice,isMealincluded,dutyFree
+New York,Barcelona,0,375,yes,yes</t>
+  </si>
+  <si>
+    <t>departureAirport,arrivalAirport,avaliableSeats,avarageTicketPrice,additionalSpaceService,priorityBoarding
+London,Munich,12,90,yes,yes</t>
+  </si>
+  <si>
+    <t>airline
+Lufthansa,Windrose_Aero,Emirates,AirAsia,Emirates</t>
   </si>
 </sst>
 </file>
@@ -92,9 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,12 +396,12 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
@@ -407,19 +428,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
+    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
